--- a/medicine/Psychotrope/Abraou-Diourso/Abraou-Diourso.xlsx
+++ b/medicine/Psychotrope/Abraou-Diourso/Abraou-Diourso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abraou-Diourso (en russe : Абрау-Дюрсо) est un village du kraï de Krasnodar. Il fait partie de la subdivision administrative de la ville de Novorossiisk.
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraou-Diourso se trouve à 14 km à l'ouest de la ville de Novorossiisk, et à 5 km au nord du littoral de la mer Noire. Le village se trouve sur le rivage du lac Abraou, à la confluence de la rivière du même nom.
 Le village de Diourso est lui situé sur les rives de la mer Noire. Il abrite une plage de galets, coincée entre deux falaises au-delà desquelles se trouvent des plages sauvages. Des bases de loisir se situent de part et d'autre des falaises: «Le Marin» (en russe : Моряк) ou «la Frégate» (en russe : Фрегат) au nord-ouest, ou le pittoresque petit lac d'eau douce, «Petit Estuaire» (en russe : Малый Лиман ou Лиманчик), au sud-est.
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les domaines de la famille impériale, à Abraou-Diourso, sont fondés en 1870 par décret du chef de la Circonscription de la mer Noire, le Général-major Dmitri Vassiliévitch Pilenko. L'appropriation des terres, pour le bénéfice du département chargé de leur administration, est réalisée en 1871. Le premier arpentage des forêts, prairies et steppes, fait état d'une superficie de 7 200 dessiatines, soit 7 866 hectares.
 Des expériences sur la culture du raisin sont lancées sous la direction de Fiodor Ivanovitch Gaïdouk, ingénieur agronome attaché à la Circonscription de la mer Noire. En 1872, il achète à l'étranger une sélection de divers cépages de la vallée du Rhin, riesling et portugieser.
@@ -592,9 +608,11 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recensements (*) ou estimations de la population[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recensements (*) ou estimations de la population
 </t>
         </is>
       </c>
